--- a/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OC/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OC/Calidad/No_conformidades.xlsx
@@ -47,7 +47,7 @@
     <t>Oriana Osiris</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>Hito cierre no tiene fecha de real de cierre</t>
@@ -297,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OC/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OC/Calidad/No_conformidades.xlsx
@@ -298,7 +298,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,7 +370,9 @@
       <c r="D4" s="5" t="n">
         <v>42360</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42360</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -389,7 +391,9 @@
       <c r="D5" s="5" t="n">
         <v>42360</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42360</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
